--- a/uploads/current_month_data.xlsx
+++ b/uploads/current_month_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>간편 결제</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>교육</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>교통, 자동차</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>생활, 쇼핑</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>술, 유흥</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>식비</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>여행, 숙박</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>의료</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>이체</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>주거, 통신</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>취미, 여가, 운동</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>카페, 간식</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>패션, 뷰티</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B15" t="n">
         <v>57777</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>편의점, 마트</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
